--- a/Schéma/PCB_Connexion/Sources/REV 1.00 (2025-02-18)/04 - ASSEMBLY/Trottinette_Connexion_BOM REV 1.00.xlsx
+++ b/Schéma/PCB_Connexion/Sources/REV 1.00 (2025-02-18)/04 - ASSEMBLY/Trottinette_Connexion_BOM REV 1.00.xlsx
@@ -5,21 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable M-A\AppData\Local\Temp\Releases\Snapshot\2\Sources\REV 1.00 (2025-02-18)\04 - ASSEMBLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyam\OneDrive\Documents\GitHub\Trotinette_Git\Schéma\PCB_Connexion\Sources\REV 1.00 (2025-02-18)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7147F9E3-8F7F-4D88-8093-EBA0C1DEDC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B1BE8B-7BBE-4627-B330-F137408427FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A:$K</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM!$11:$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A:$K</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -856,6 +869,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,15 +950,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -904,91 +977,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1777,171 +1790,171 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
-    <col min="10" max="10" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" customWidth="1"/>
-    <col min="14" max="255" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="255" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="60" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="62" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="51" t="str">
         <f>_xlfn.CONCAT(I5,".",I6)</f>
         <v>1.00</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="63" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="64" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="11" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -1976,7 +1989,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
@@ -2002,7 +2015,7 @@
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>26</v>
@@ -2034,7 +2047,7 @@
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>27</v>
@@ -2066,7 +2079,7 @@
       </c>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>28</v>
@@ -2090,7 +2103,7 @@
       </c>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>29</v>
@@ -2116,7 +2129,7 @@
       </c>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>30</v>
@@ -2148,7 +2161,7 @@
       </c>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>31</v>
@@ -2174,7 +2187,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>32</v>
@@ -2206,7 +2219,7 @@
       </c>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>33</v>
@@ -2238,7 +2251,7 @@
       </c>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>34</v>
@@ -2270,7 +2283,7 @@
       </c>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>35</v>
@@ -2296,7 +2309,7 @@
       </c>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>36</v>
@@ -2322,36 +2335,36 @@
       </c>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="15"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2361,13 +2374,13 @@
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="6"/>
@@ -2377,7 +2390,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6"/>
@@ -2389,11 +2402,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A25:C29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2407,6 +2415,11 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A25:C29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
